--- a/Data/EC/NIT-9005011264.xlsx
+++ b/Data/EC/NIT-9005011264.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD3F5B6-3F06-4E82-AC19-316F33979D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41968B94-E01C-41A6-BEA6-6C0D5D3A9F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7751F37-E105-4A71-B5B1-4B129404B3D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F48A7D7F-A24E-47ED-865A-F16174AE79C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="96">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,28 +65,202 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73213915</t>
+  </si>
+  <si>
+    <t>YHEIMER NAVARRO LOPEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1047405345</t>
+  </si>
+  <si>
+    <t>KEISY VANESA SANCHEZ ROMERO</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1143326374</t>
+  </si>
+  <si>
+    <t>JOSE REGINO RODRIGUEZ NARANJO</t>
+  </si>
+  <si>
+    <t>45523420</t>
+  </si>
+  <si>
+    <t>YAJAIRA PATRICIA DE LA ROSA NUÑEZ</t>
+  </si>
+  <si>
+    <t>1007417282</t>
+  </si>
+  <si>
+    <t>ELAYNE BANESSA HOYOS GUZMAN</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>64869885</t>
+  </si>
+  <si>
+    <t>VANESSA LUCIA FUENMAYOR SOLANO</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
     <t>1030605794</t>
   </si>
   <si>
     <t>JEFFERSON MANUEL ANILLO BARRIOS</t>
   </si>
   <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1007417282</t>
-  </si>
-  <si>
-    <t>ELAYNE BANESSA HOYOS GUZMAN</t>
-  </si>
-  <si>
-    <t>64869885</t>
-  </si>
-  <si>
-    <t>VANESSA LUCIA FUENMAYOR SOLANO</t>
-  </si>
-  <si>
-    <t>1712</t>
+    <t>1221980218</t>
+  </si>
+  <si>
+    <t>JUNIOR ANTONIO PAZ GRANADA</t>
   </si>
   <si>
     <t>20195346</t>
@@ -107,136 +281,16 @@
     <t>2109</t>
   </si>
   <si>
-    <t>73213915</t>
-  </si>
-  <si>
-    <t>YHEIMER NAVARRO LOPEZ</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>45523420</t>
-  </si>
-  <si>
-    <t>YAJAIRA PATRICIA DE LA ROSA NUÑEZ</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1007169419</t>
+  </si>
+  <si>
+    <t>DEIVIS JUNIOR RODRIGUEZ SALTARIN</t>
+  </si>
+  <si>
+    <t>1043972024</t>
+  </si>
+  <si>
+    <t>JESUS DAVID JIMENEZ DOMINGUEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -650,7 +704,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3EF031-AB20-7D89-A947-E1CB094CEDD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18308175-0828-D5CB-0D1F-705B9A3859F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,8 +1055,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57741471-F22B-4329-BEAB-4E9632AF8A70}">
-  <dimension ref="B2:J85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD34098F-5991-441E-BB1F-039AF4523245}">
+  <dimension ref="B2:J103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1026,7 +1080,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1071,7 +1125,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1103,12 +1157,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2615828</v>
+        <v>3490444</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1119,17 +1173,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F13" s="5">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1156,13 +1210,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1179,10 +1233,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1193,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1216,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>6885</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1239,19 +1293,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1262,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>35200</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1285,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1308,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1331,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1354,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1377,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1400,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1423,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1446,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1469,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1492,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1515,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1538,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1561,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1584,13 +1638,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1607,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1630,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1653,13 +1707,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1676,13 +1730,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1699,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1722,13 +1776,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1745,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1768,19 +1822,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1791,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1814,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1837,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1860,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1883,13 +1937,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1906,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1929,13 +1983,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1952,13 +2006,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1975,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="F51" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1998,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -2021,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G53" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2044,13 +2098,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2067,19 +2121,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2090,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2113,19 +2167,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>55120</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>1378000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2136,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
-        <v>46400</v>
+        <v>55120</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>1378000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2159,19 +2213,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F59" s="18">
-        <v>40000</v>
+        <v>55120</v>
       </c>
       <c r="G59" s="18">
-        <v>1000000</v>
+        <v>1378000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2182,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>46400</v>
+        <v>55120</v>
       </c>
       <c r="G60" s="18">
-        <v>1160000</v>
+        <v>1378000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2205,19 +2259,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
-        <v>40000</v>
+        <v>55120</v>
       </c>
       <c r="G61" s="18">
-        <v>1000000</v>
+        <v>1378000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2228,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
-        <v>46400</v>
+        <v>55120</v>
       </c>
       <c r="G62" s="18">
-        <v>1160000</v>
+        <v>1378000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2251,19 +2305,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>55120</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>1378000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2274,19 +2328,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F64" s="18">
-        <v>46400</v>
+        <v>1898</v>
       </c>
       <c r="G64" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2297,19 +2351,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F65" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G65" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2320,19 +2374,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F66" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G66" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2343,13 +2397,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2366,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2389,19 +2443,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F69" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G69" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2412,13 +2466,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2435,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2458,13 +2512,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2481,19 +2535,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F73" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G73" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2504,19 +2558,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2527,13 +2581,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2550,19 +2604,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F76" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G76" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2573,13 +2627,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2596,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F78" s="18">
         <v>46400</v>
@@ -2615,56 +2669,470 @@
       <c r="J78" s="20"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="22" t="s">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G80" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G81" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G82" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G83" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G84" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F79" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G79" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="32" t="s">
+      <c r="E85" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G85" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" s="18">
+        <v>6885</v>
+      </c>
+      <c r="G86" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G87" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G88" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="H84" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="32"/>
-      <c r="H85" s="1" t="s">
+      <c r="E89" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="F89" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G89" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F90" s="18">
+        <v>35200</v>
+      </c>
+      <c r="G90" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G91" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G92" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G93" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G94" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G95" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G96" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G97" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="32"/>
+      <c r="H102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="H103" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="H102:J102"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005011264.xlsx
+++ b/Data/EC/NIT-9005011264.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41968B94-E01C-41A6-BEA6-6C0D5D3A9F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C02F52C-E9E0-44A8-8D62-E9365E40C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F48A7D7F-A24E-47ED-865A-F16174AE79C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E3D1E02-1A5A-419A-9915-2A64C32AC7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="80">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,232 +65,184 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1007417282</t>
+  </si>
+  <si>
+    <t>ELAYNE BANESSA HOYOS GUZMAN</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1030605794</t>
+  </si>
+  <si>
+    <t>JEFFERSON MANUEL ANILLO BARRIOS</t>
+  </si>
+  <si>
+    <t>64869885</t>
+  </si>
+  <si>
+    <t>VANESSA LUCIA FUENMAYOR SOLANO</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>20195346</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE BENITEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>20323585</t>
+  </si>
+  <si>
+    <t>RONAL JOSE NORIEL VILLARREAL</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>73213915</t>
   </si>
   <si>
     <t>YHEIMER NAVARRO LOPEZ</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>45523420</t>
+  </si>
+  <si>
+    <t>YAJAIRA PATRICIA DE LA ROSA NUÑEZ</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1047405345</t>
-  </si>
-  <si>
-    <t>KEISY VANESA SANCHEZ ROMERO</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>1143326374</t>
-  </si>
-  <si>
-    <t>JOSE REGINO RODRIGUEZ NARANJO</t>
-  </si>
-  <si>
-    <t>45523420</t>
-  </si>
-  <si>
-    <t>YAJAIRA PATRICIA DE LA ROSA NUÑEZ</t>
-  </si>
-  <si>
-    <t>1007417282</t>
-  </si>
-  <si>
-    <t>ELAYNE BANESSA HOYOS GUZMAN</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>64869885</t>
-  </si>
-  <si>
-    <t>VANESSA LUCIA FUENMAYOR SOLANO</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1030605794</t>
-  </si>
-  <si>
-    <t>JEFFERSON MANUEL ANILLO BARRIOS</t>
-  </si>
-  <si>
-    <t>1221980218</t>
-  </si>
-  <si>
-    <t>JUNIOR ANTONIO PAZ GRANADA</t>
-  </si>
-  <si>
-    <t>20195346</t>
-  </si>
-  <si>
-    <t>MANUEL ENRIQUE BENITEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>20323585</t>
-  </si>
-  <si>
-    <t>RONAL JOSE NORIEL VILLARREAL</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1007169419</t>
-  </si>
-  <si>
-    <t>DEIVIS JUNIOR RODRIGUEZ SALTARIN</t>
-  </si>
-  <si>
-    <t>1043972024</t>
-  </si>
-  <si>
-    <t>JESUS DAVID JIMENEZ DOMINGUEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -389,7 +341,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -402,9 +356,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -604,23 +556,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,10 +600,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18308175-0828-D5CB-0D1F-705B9A3859F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9CA432-47C2-DF22-9F68-D90B2B9707D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,8 +1007,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD34098F-5991-441E-BB1F-039AF4523245}">
-  <dimension ref="B2:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618A318E-4306-4A97-9283-E8D86AC66031}">
+  <dimension ref="B2:J89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1080,7 +1032,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1125,7 +1077,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1157,12 +1109,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3490444</v>
+        <v>2788628</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1173,17 +1125,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F13" s="5">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1210,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1233,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1247,19 +1199,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1270,19 +1222,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>6885</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1293,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1316,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>35200</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1339,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1362,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1385,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1408,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1431,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1454,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1477,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1500,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1523,13 +1475,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1546,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1569,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1592,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1615,13 +1567,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1638,13 +1590,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1661,13 +1613,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1684,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1707,13 +1659,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1730,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1753,13 +1705,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1776,13 +1728,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1799,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1822,13 +1774,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1845,19 +1797,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1868,13 +1820,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1891,19 +1843,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1914,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1937,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F47" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1960,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -1983,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2006,13 +1958,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -2029,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G51" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2052,13 +2004,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -2075,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F53" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G53" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2098,13 +2050,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2121,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F55" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2144,13 +2096,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2167,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57" s="18">
-        <v>55120</v>
+        <v>46400</v>
       </c>
       <c r="G57" s="18">
-        <v>1378000</v>
+        <v>1160000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2190,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
-        <v>55120</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>1378000</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2213,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F59" s="18">
-        <v>55120</v>
+        <v>46400</v>
       </c>
       <c r="G59" s="18">
-        <v>1378000</v>
+        <v>1160000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2236,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>55120</v>
+        <v>40000</v>
       </c>
       <c r="G60" s="18">
-        <v>1378000</v>
+        <v>1000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2259,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
-        <v>55120</v>
+        <v>46400</v>
       </c>
       <c r="G61" s="18">
-        <v>1378000</v>
+        <v>1160000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2282,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
-        <v>55120</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="18">
-        <v>1378000</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2305,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>55120</v>
+        <v>46400</v>
       </c>
       <c r="G63" s="18">
-        <v>1378000</v>
+        <v>1160000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2328,19 +2280,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>1898</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2351,13 +2303,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2374,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F66" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G66" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2397,13 +2349,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2420,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F68" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2443,13 +2395,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2466,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F70" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2489,13 +2441,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2512,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F72" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2535,13 +2487,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F73" s="18">
         <v>46400</v>
@@ -2558,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D74" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F74" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2581,13 +2533,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D75" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2604,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F76" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G76" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2627,13 +2579,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2650,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="F78" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2673,13 +2625,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F79" s="18">
         <v>46400</v>
@@ -2696,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F80" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2719,13 +2671,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F81" s="18">
         <v>46400</v>
@@ -2742,397 +2694,75 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F82" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="18">
+      <c r="B83" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="24">
         <v>46400</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="24">
         <v>1160000</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F85" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G85" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F86" s="18">
-        <v>6885</v>
-      </c>
-      <c r="G86" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F87" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G87" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="26"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="18">
-        <v>1898</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="B88" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="H88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E89" s="16" t="s">
+      <c r="B89" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F89" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G89" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="17" t="s">
+      <c r="C89" s="32"/>
+      <c r="H89" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F90" s="18">
-        <v>35200</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1200000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G97" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="H102" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="H103" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H88:J88"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005011264.xlsx
+++ b/Data/EC/NIT-9005011264.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C02F52C-E9E0-44A8-8D62-E9365E40C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{129331D4-B57C-4A3A-891D-1308E45ECB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E3D1E02-1A5A-419A-9915-2A64C32AC7EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B871405-9C65-4224-B7E7-B0368B790160}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="81">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -341,9 +344,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -356,7 +357,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -550,29 +553,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,19 +594,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9CA432-47C2-DF22-9F68-D90B2B9707D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A2F5B2-5C36-90E3-BEE5-76F5541F2CC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,8 +1016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618A318E-4306-4A97-9283-E8D86AC66031}">
-  <dimension ref="B2:J89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5176DBC7-F31C-45FF-BCA9-F291414EA6AC}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1030,57 +1039,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9005011264</v>
       </c>
@@ -1109,12 +1118,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>2788628</v>
+        <v>2875028</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1125,17 +1134,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1162,13 +1171,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1181,18 +1190,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>29509</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>737717</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1204,18 +1213,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>29509</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>737717</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1227,18 +1236,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>6885</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>828116</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1250,18 +1259,18 @@
       <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>33125</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>828116</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1273,18 +1282,18 @@
       <c r="D20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>35200</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1200000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1296,18 +1305,18 @@
       <c r="D21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1319,18 +1328,18 @@
       <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1342,18 +1351,18 @@
       <c r="D23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1365,18 +1374,18 @@
       <c r="D24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1388,18 +1397,18 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1411,18 +1420,18 @@
       <c r="D26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1434,18 +1443,18 @@
       <c r="D27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1457,18 +1466,18 @@
       <c r="D28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1480,18 +1489,18 @@
       <c r="D29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1503,18 +1512,18 @@
       <c r="D30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1526,18 +1535,18 @@
       <c r="D31" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1549,18 +1558,18 @@
       <c r="D32" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1572,18 +1581,18 @@
       <c r="D33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1595,18 +1604,18 @@
       <c r="D34" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1618,18 +1627,18 @@
       <c r="D35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1641,18 +1650,18 @@
       <c r="D36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1664,18 +1673,18 @@
       <c r="D37" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1687,18 +1696,18 @@
       <c r="D38" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1710,18 +1719,18 @@
       <c r="D39" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1733,18 +1742,18 @@
       <c r="D40" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1756,18 +1765,18 @@
       <c r="D41" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1779,18 +1788,18 @@
       <c r="D42" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1802,18 +1811,18 @@
       <c r="D43" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>46400</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>1160000</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1825,18 +1834,18 @@
       <c r="D44" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1848,18 +1857,18 @@
       <c r="D45" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>46400</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>1160000</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1871,18 +1880,18 @@
       <c r="D46" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1894,18 +1903,18 @@
       <c r="D47" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>46400</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>1160000</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1917,18 +1926,18 @@
       <c r="D48" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1940,18 +1949,18 @@
       <c r="D49" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>46400</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1160000</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1963,18 +1972,18 @@
       <c r="D50" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1986,18 +1995,18 @@
       <c r="D51" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>46400</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>1160000</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2009,18 +2018,18 @@
       <c r="D52" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2032,18 +2041,18 @@
       <c r="D53" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>46400</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>1160000</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2055,18 +2064,18 @@
       <c r="D54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2078,18 +2087,18 @@
       <c r="D55" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>46400</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="19">
         <v>1160000</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2101,18 +2110,18 @@
       <c r="D56" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F56" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2124,18 +2133,18 @@
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>46400</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>1160000</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2147,18 +2156,18 @@
       <c r="D58" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2170,18 +2179,18 @@
       <c r="D59" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>46400</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>1160000</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2193,18 +2202,18 @@
       <c r="D60" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2216,18 +2225,18 @@
       <c r="D61" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>46400</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>1160000</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2239,18 +2248,18 @@
       <c r="D62" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2262,18 +2271,18 @@
       <c r="D63" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>46400</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>1160000</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2285,18 +2294,18 @@
       <c r="D64" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2308,18 +2317,18 @@
       <c r="D65" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>46400</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="19">
         <v>1160000</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2331,18 +2340,18 @@
       <c r="D66" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F66" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2354,18 +2363,18 @@
       <c r="D67" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>46400</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>1160000</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2377,18 +2386,18 @@
       <c r="D68" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F68" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2400,18 +2409,18 @@
       <c r="D69" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>46400</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>1160000</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2423,18 +2432,18 @@
       <c r="D70" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F70" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2446,18 +2455,18 @@
       <c r="D71" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>46400</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="19">
         <v>1160000</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2469,18 +2478,18 @@
       <c r="D72" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2492,18 +2501,18 @@
       <c r="D73" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>46400</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="19">
         <v>1160000</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2515,18 +2524,18 @@
       <c r="D74" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F74" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2538,18 +2547,18 @@
       <c r="D75" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>46400</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>1160000</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2561,18 +2570,18 @@
       <c r="D76" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F76" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2584,18 +2593,18 @@
       <c r="D77" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>46400</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>1160000</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2607,18 +2616,18 @@
       <c r="D78" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2630,18 +2639,18 @@
       <c r="D79" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="19">
         <v>46400</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="19">
         <v>1160000</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2653,18 +2662,18 @@
       <c r="D80" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F80" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2676,18 +2685,18 @@
       <c r="D81" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>46400</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>1160000</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2699,70 +2708,116 @@
       <c r="D82" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F82" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="22" t="s">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="24">
+      <c r="F83" s="19">
         <v>46400</v>
       </c>
-      <c r="G83" s="24">
+      <c r="G83" s="19">
         <v>1160000</v>
       </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="26"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="32" t="s">
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F84" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="26">
+        <v>46400</v>
+      </c>
+      <c r="G85" s="26">
+        <v>1160000</v>
+      </c>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="28"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="34"/>
+      <c r="H90" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="H88" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="H89" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="C91" s="34"/>
+      <c r="H91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H90:J90"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
